--- a/testData/sso_test_data.xlsx
+++ b/testData/sso_test_data.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sso" sheetId="3" r:id="rId1"/>
+    <sheet name="windows_sso" sheetId="4" r:id="rId2"/>
+    <sheet name="domain_sso" sheetId="5" r:id="rId3"/>
+    <sheet name="yunei_sso" sheetId="6" r:id="rId4"/>
+    <sheet name="database_sso" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +222,170 @@
   </si>
   <si>
     <t>en,login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdp代填用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mstsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdp不代填用户和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令行账号6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令行密码7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录账号9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$aduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$aduser账号单点登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$aduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$user(local)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp代填用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle代填用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle10g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS资源代填用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用发布4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql资源代填用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +416,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -312,12 +488,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,9 +525,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1165,4 +1349,651 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/sso_test_data.xlsx
+++ b/testData/sso_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="sso" sheetId="3" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cisco匿名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ifconfig,ls,ps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
   </si>
   <si>
     <t>secureCRT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huiwei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,6 +378,14 @@
   </si>
   <si>
     <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -851,31 +851,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -905,15 +905,15 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -935,15 +935,15 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -953,10 +953,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -965,15 +965,15 @@
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
@@ -983,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
@@ -995,19 +995,19 @@
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -1023,25 +1023,25 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1051,28 +1051,28 @@
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>8</v>
@@ -1081,28 +1081,28 @@
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>8</v>
@@ -1111,28 +1111,28 @@
         <v>8</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
@@ -1141,29 +1141,29 @@
         <v>8</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1171,15 +1171,15 @@
         <v>8</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -1199,15 +1199,15 @@
         <v>8</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1227,22 +1227,22 @@
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
@@ -1255,15 +1255,15 @@
         <v>8</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
@@ -1283,25 +1283,25 @@
         <v>8</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
@@ -1311,15 +1311,15 @@
         <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1329,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
@@ -1339,10 +1339,10 @@
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1374,37 +1374,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>0</v>
@@ -1412,17 +1412,17 @@
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1441,22 +1441,22 @@
         <v>8</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1469,47 +1469,47 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1538,37 +1538,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>0</v>
@@ -1576,17 +1576,17 @@
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1605,22 +1605,22 @@
         <v>8</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1633,47 +1633,47 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1702,37 +1702,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>0</v>
@@ -1740,17 +1740,17 @@
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1763,62 +1763,62 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1831,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1872,31 +1872,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -1904,20 +1904,20 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1929,67 +1929,67 @@
         <v>8</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/testData/sso_test_data.xlsx
+++ b/testData/sso_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sso" sheetId="3" r:id="rId1"/>
@@ -281,14 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>root.1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root.123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yunei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hH@1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +374,18 @@
   </si>
   <si>
     <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin@12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>654321</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +526,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -833,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1007,7 +1010,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -1035,7 +1038,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -1063,10 +1066,10 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
@@ -1093,7 +1096,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
@@ -1123,7 +1126,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
@@ -1480,33 +1483,33 @@
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>43</v>
@@ -1524,7 +1527,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1635,8 +1638,8 @@
       <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>65</v>
+      <c r="K3" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>43</v>
@@ -1678,6 +1681,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1686,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1744,10 +1750,10 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>52</v>
@@ -1765,8 +1771,8 @@
       <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>66</v>
+      <c r="K2" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>43</v>
@@ -1778,7 +1784,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>60</v>
@@ -1812,7 +1818,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1831,10 +1837,10 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>43</v>
@@ -1846,6 +1852,7 @@
     <hyperlink ref="K4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1884,10 +1891,10 @@
         <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>55</v>
@@ -1896,7 +1903,7 @@
         <v>56</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -1904,20 +1911,20 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1934,20 +1941,20 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>64</v>
@@ -1964,20 +1971,20 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>64</v>

--- a/testData/sso_test_data.xlsx
+++ b/testData/sso_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="sso" sheetId="3" r:id="rId1"/>
@@ -377,15 +377,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Admin@12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>654321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin@123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1639,7 +1639,7 @@
         <v>51</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>43</v>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1772,7 +1772,7 @@
         <v>51</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>43</v>
@@ -1837,7 +1837,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>67</v>
